--- a/output/XY_objets.xlsx
+++ b/output/XY_objets.xlsx
@@ -14260,8 +14260,9 @@
   <cols>
     <col width="3.5" customWidth="1" min="1" max="1"/>
     <col width="30.89669421487604" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="62" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16062,7 +16063,9 @@
   <cols>
     <col width="3.5" customWidth="1" min="1" max="1"/>
     <col width="30.89669421487604" customWidth="1" min="2" max="2"/>
-    <col width="128" customWidth="1" min="3" max="3"/>
+    <col width="130" customWidth="1" min="3" max="3"/>
+    <col width="2" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -18579,7 +18582,9 @@
   <cols>
     <col width="3.5" customWidth="1" min="1" max="1"/>
     <col width="27.65702479338843" customWidth="1" min="2" max="2"/>
-    <col width="111" customWidth="1" min="3" max="3"/>
+    <col width="113" customWidth="1" min="3" max="3"/>
+    <col width="2" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -24620,7 +24625,9 @@
   <cols>
     <col width="3.5" customWidth="1" min="1" max="1"/>
     <col width="26.03719008264463" customWidth="1" min="2" max="2"/>
-    <col width="105" customWidth="1" min="3" max="3"/>
+    <col width="107" customWidth="1" min="3" max="3"/>
+    <col width="2" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -27777,7 +27784,9 @@
   <cols>
     <col width="3.5" customWidth="1" min="1" max="1"/>
     <col width="22.79752066115702" customWidth="1" min="2" max="2"/>
-    <col width="93" customWidth="1" min="3" max="3"/>
+    <col width="95" customWidth="1" min="3" max="3"/>
+    <col width="2" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -29974,7 +29983,9 @@
   <cols>
     <col width="3.5" customWidth="1" min="1" max="1"/>
     <col width="26.03719008264463" customWidth="1" min="2" max="2"/>
-    <col width="116" customWidth="1" min="3" max="3"/>
+    <col width="118" customWidth="1" min="3" max="3"/>
+    <col width="2" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -31951,7 +31962,9 @@
   <cols>
     <col width="3.5" customWidth="1" min="1" max="1"/>
     <col width="29.27685950413223" customWidth="1" min="2" max="2"/>
-    <col width="101" customWidth="1" min="3" max="3"/>
+    <col width="103" customWidth="1" min="3" max="3"/>
+    <col width="2" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -33827,8 +33840,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="3.5" customWidth="1" min="1" max="1"/>
-    <col width="24.41735537190083" customWidth="1" min="2" max="2"/>
-    <col width="89" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="91" customWidth="1" min="3" max="3"/>
+    <col width="2" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -37465,7 +37480,9 @@
   <cols>
     <col width="3.5" customWidth="1" min="1" max="1"/>
     <col width="30.89669421487604" customWidth="1" min="2" max="2"/>
-    <col width="92" customWidth="1" min="3" max="3"/>
+    <col width="94" customWidth="1" min="3" max="3"/>
+    <col width="2" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -41962,7 +41979,9 @@
   <cols>
     <col width="3.5" customWidth="1" min="1" max="1"/>
     <col width="24.41735537190083" customWidth="1" min="2" max="2"/>
-    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="42" customWidth="1" min="3" max="3"/>
+    <col width="2" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
